--- a/biology/Botanique/Delfloga/Delfloga.xlsx
+++ b/biology/Botanique/Delfloga/Delfloga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delfloga est un cultivar de pommier domestique (latin : Malus Pumila « delfloga »).
 </t>
@@ -511,7 +523,9 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>DELFLOGA est une variété enregistrée par l'Union Européenne :
 numéro de référence : 26948
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Connue sous l'appellation commerciale Delbardivine, c'est une création Delbard 2008 (France).
 </t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété très appropriée aux petits potagers familiaux car elle a hérité les qualités de la Tenroy (une Royal Gala exceptionnelle) et la résistance aux races communes de tavelure de la Florina.
 </t>
@@ -606,7 +624,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Croisement naturel : Royal Gala Tenroy x Florina.
 </t>
@@ -637,7 +657,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe de pollinisation : D-E.
 Date de floraison : environ 4 jours après la Golden Delicious.
@@ -669,10 +691,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Maladies : très forte résistance à la tavelure.
-Maturité : mi-septembre[1] à début octobre.
+Maturité : mi-septembre à début octobre.
 Conservation : jusque début mars.</t>
         </is>
       </c>
